--- a/biology/Mycologie/Biscogniauxia_nummularia/Biscogniauxia_nummularia.xlsx
+++ b/biology/Mycologie/Biscogniauxia_nummularia/Biscogniauxia_nummularia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypoxylon nummulaire
 Biscogniauxia nummularia, l’Hypoxylon nummulaire, est une espèce de champignons ascomycètes de la famille des Xylariaceae. Ce champignon est présent naturellement dans les hêtraies. C'est un agent pathogène qui provoque un chancre pouvant faire dépérir l'arbre.
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Biscogniauxia nummularia (Bull.) Kuntze[1].
-L'espèce a été initialement classée dans le genre Hypoxylon sous le basionyme Hypoxylon nummularium Bull.[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Biscogniauxia nummularia (Bull.) Kuntze.
+L'espèce a été initialement classée dans le genre Hypoxylon sous le basionyme Hypoxylon nummularium Bull..
 </t>
         </is>
       </c>
@@ -544,17 +558,19 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Biscogniauxia bulliardii (Tul. &amp; C. Tul.) Kuntze[2]
-Hypoxylon nummularium var. nummularium Bull.[2]
-Hypoxylon nummularium Bull.[2]
-Kommamyce bulliardii (Tul. &amp; C. Tul.) Nieuwl[2]
-Nummularia anthracina (J.C. Schmith) Traverso[2]
-Nummularia nummularia (Bull.) J. Schröt.[2]
-Nummulariola nummularia (Bull.) House[2]
-Sphaeria anthracina J.C. Schmith[2]
-Sphaeria nummularia DC.[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Biscogniauxia bulliardii (Tul. &amp; C. Tul.) Kuntze
+Hypoxylon nummularium var. nummularium Bull.
+Hypoxylon nummularium Bull.
+Kommamyce bulliardii (Tul. &amp; C. Tul.) Nieuwl
+Nummularia anthracina (J.C. Schmith) Traverso
+Nummularia nummularia (Bull.) J. Schröt.
+Nummulariola nummularia (Bull.) House
+Sphaeria anthracina J.C. Schmith
+Sphaeria nummularia DC.</t>
         </is>
       </c>
     </row>
@@ -582,9 +598,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 juillet 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 juillet 2021) :
 Biscogniauxia nummularia var. exutans
 Biscogniauxia nummularia var. merrillii</t>
         </is>
